--- a/attendance-files/Pricing/Pricing Attendance - B.xlsx
+++ b/attendance-files/Pricing/Pricing Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="200">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" ref="F7:F86" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>40</v>
@@ -1695,9 +1695,15 @@
       <c r="S7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
+      <c r="T7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W7" s="39"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
@@ -1719,11 +1725,11 @@
       </c>
       <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>40</v>
@@ -1764,9 +1770,15 @@
       <c r="S8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
+      <c r="T8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
@@ -1788,11 +1800,11 @@
       </c>
       <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>40</v>
@@ -1833,9 +1845,15 @@
       <c r="S9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
+      <c r="T9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W9" s="39"/>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
@@ -1861,7 +1879,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>40</v>
@@ -1902,9 +1920,15 @@
       <c r="S10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
+      <c r="T10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
@@ -1930,7 +1954,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>40</v>
@@ -1971,9 +1995,15 @@
       <c r="S11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
+      <c r="T11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -1995,11 +2025,11 @@
       </c>
       <c r="E12" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>40</v>
@@ -2040,9 +2070,15 @@
       <c r="S12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="T12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -2064,11 +2100,11 @@
       </c>
       <c r="E13" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>40</v>
@@ -2109,9 +2145,15 @@
       <c r="S13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="T13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -2137,7 +2179,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>40</v>
@@ -2178,9 +2220,15 @@
       <c r="S14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="T14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -2206,7 +2254,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>41</v>
@@ -2247,9 +2295,15 @@
       <c r="S15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="T15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -2271,11 +2325,11 @@
       </c>
       <c r="E16" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>41</v>
@@ -2316,9 +2370,15 @@
       <c r="S16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
+      <c r="T16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
@@ -2340,11 +2400,11 @@
       </c>
       <c r="E17" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>40</v>
@@ -2385,9 +2445,15 @@
       <c r="S17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="T17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
@@ -2409,11 +2475,11 @@
       </c>
       <c r="E18" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>40</v>
@@ -2454,9 +2520,15 @@
       <c r="S18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="T18" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
@@ -2478,11 +2550,11 @@
       </c>
       <c r="E19" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>40</v>
@@ -2523,9 +2595,15 @@
       <c r="S19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="T19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
@@ -2551,7 +2629,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>40</v>
@@ -2592,9 +2670,15 @@
       <c r="S20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
+      <c r="T20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
@@ -2620,7 +2704,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>40</v>
@@ -2661,9 +2745,15 @@
       <c r="S21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="T21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -2685,11 +2775,11 @@
       </c>
       <c r="E22" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>40</v>
@@ -2730,9 +2820,15 @@
       <c r="S22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="T22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
@@ -2758,7 +2854,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>41</v>
@@ -2799,9 +2895,15 @@
       <c r="S23" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
+      <c r="T23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
@@ -2823,11 +2925,11 @@
       </c>
       <c r="E24" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>40</v>
@@ -2868,9 +2970,15 @@
       <c r="S24" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="T24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
       <c r="Y24" s="39"/>
@@ -2896,7 +3004,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>41</v>
@@ -2937,9 +3045,15 @@
       <c r="S25" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="T25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
@@ -2961,11 +3075,11 @@
       </c>
       <c r="E26" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>40</v>
@@ -3006,9 +3120,15 @@
       <c r="S26" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="T26" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
@@ -3030,11 +3150,11 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>40</v>
@@ -3075,9 +3195,15 @@
       <c r="S27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="T27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
@@ -3099,11 +3225,11 @@
       </c>
       <c r="E28" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>40</v>
@@ -3144,9 +3270,15 @@
       <c r="S28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="T28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
@@ -3168,11 +3300,11 @@
       </c>
       <c r="E29" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>40</v>
@@ -3213,9 +3345,15 @@
       <c r="S29" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
+      <c r="T29" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V29" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
       <c r="Y29" s="39"/>
@@ -3241,7 +3379,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>41</v>
@@ -3282,9 +3420,15 @@
       <c r="S30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
+      <c r="T30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
@@ -3306,11 +3450,11 @@
       </c>
       <c r="E31" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>41</v>
@@ -3351,9 +3495,15 @@
       <c r="S31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
+      <c r="T31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V31" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
       <c r="Y31" s="39"/>
@@ -3379,7 +3529,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>40</v>
@@ -3420,9 +3570,15 @@
       <c r="S32" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
+      <c r="T32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
@@ -3448,7 +3604,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>40</v>
@@ -3489,9 +3645,15 @@
       <c r="S33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
+      <c r="T33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
@@ -3517,7 +3679,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>40</v>
@@ -3558,9 +3720,15 @@
       <c r="S34" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
+      <c r="T34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
       <c r="Y34" s="39"/>
@@ -3582,11 +3750,11 @@
       </c>
       <c r="E35" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>40</v>
@@ -3627,9 +3795,15 @@
       <c r="S35" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="T35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V35" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
@@ -3651,11 +3825,11 @@
       </c>
       <c r="E36" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>40</v>
@@ -3696,9 +3870,15 @@
       <c r="S36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
+      <c r="T36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V36" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="39"/>
@@ -3724,7 +3904,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>40</v>
@@ -3765,9 +3945,15 @@
       <c r="S37" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
+      <c r="T37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V37" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
       <c r="Y37" s="39"/>
@@ -3793,7 +3979,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>40</v>
@@ -3834,9 +4020,15 @@
       <c r="S38" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
+      <c r="T38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V38" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
       <c r="Y38" s="39"/>
@@ -3862,7 +4054,7 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>40</v>
@@ -3903,9 +4095,15 @@
       <c r="S39" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="T39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V39" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
       <c r="Y39" s="39"/>
@@ -3927,11 +4125,11 @@
       </c>
       <c r="E40" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>40</v>
@@ -3972,9 +4170,15 @@
       <c r="S40" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
+      <c r="T40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
       <c r="Y40" s="39"/>
@@ -4000,7 +4204,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>40</v>
@@ -4041,9 +4245,15 @@
       <c r="S41" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
+      <c r="T41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V41" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
       <c r="Y41" s="39"/>
@@ -4069,7 +4279,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>41</v>
@@ -4110,9 +4320,15 @@
       <c r="S42" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
+      <c r="T42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V42" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
       <c r="Y42" s="39"/>
@@ -4134,11 +4350,11 @@
       </c>
       <c r="E43" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>40</v>
@@ -4179,9 +4395,15 @@
       <c r="S43" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
+      <c r="T43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V43" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
       <c r="Y43" s="39"/>
@@ -4203,7 +4425,7 @@
       </c>
       <c r="E44" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
@@ -4248,9 +4470,15 @@
       <c r="S44" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
+      <c r="T44" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V44" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
       <c r="Y44" s="39"/>
@@ -4276,7 +4504,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>40</v>
@@ -4317,9 +4545,15 @@
       <c r="S45" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
+      <c r="T45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V45" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W45" s="39"/>
       <c r="X45" s="39"/>
       <c r="Y45" s="39"/>
@@ -4345,7 +4579,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>40</v>
@@ -4386,9 +4620,15 @@
       <c r="S46" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
+      <c r="T46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
       <c r="Y46" s="39"/>
@@ -4414,7 +4654,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>40</v>
@@ -4455,9 +4695,15 @@
       <c r="S47" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
+      <c r="T47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V47" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
       <c r="Y47" s="39"/>
@@ -4483,7 +4729,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>40</v>
@@ -4524,9 +4770,15 @@
       <c r="S48" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
+      <c r="T48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V48" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
       <c r="Y48" s="39"/>
@@ -4552,7 +4804,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>40</v>
@@ -4593,9 +4845,15 @@
       <c r="S49" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
+      <c r="T49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V49" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
       <c r="Y49" s="39"/>
@@ -4617,11 +4875,11 @@
       </c>
       <c r="E50" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>40</v>
@@ -4662,9 +4920,15 @@
       <c r="S50" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
+      <c r="T50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U50" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V50" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
       <c r="Y50" s="39"/>
@@ -4690,7 +4954,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>40</v>
@@ -4731,9 +4995,15 @@
       <c r="S51" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
+      <c r="T51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V51" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
       <c r="Y51" s="39"/>
@@ -4755,11 +5025,11 @@
       </c>
       <c r="E52" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>40</v>
@@ -4800,9 +5070,15 @@
       <c r="S52" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
+      <c r="T52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U52" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V52" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
       <c r="Y52" s="39"/>
@@ -4824,11 +5100,11 @@
       </c>
       <c r="E53" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>40</v>
@@ -4869,9 +5145,15 @@
       <c r="S53" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
+      <c r="T53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U53" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V53" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
       <c r="Y53" s="39"/>
@@ -4897,7 +5179,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>40</v>
@@ -4938,9 +5220,15 @@
       <c r="S54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
+      <c r="T54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V54" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W54" s="39"/>
       <c r="X54" s="39"/>
       <c r="Y54" s="39"/>
@@ -4962,11 +5250,11 @@
       </c>
       <c r="E55" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>40</v>
@@ -5007,9 +5295,15 @@
       <c r="S55" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
+      <c r="T55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V55" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
       <c r="Y55" s="39"/>
@@ -5031,11 +5325,11 @@
       </c>
       <c r="E56" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>40</v>
@@ -5076,9 +5370,15 @@
       <c r="S56" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
+      <c r="T56" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V56" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W56" s="39"/>
       <c r="X56" s="39"/>
       <c r="Y56" s="39"/>
@@ -5100,11 +5400,11 @@
       </c>
       <c r="E57" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>40</v>
@@ -5145,9 +5445,15 @@
       <c r="S57" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
+      <c r="T57" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V57" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W57" s="39"/>
       <c r="X57" s="39"/>
       <c r="Y57" s="39"/>
@@ -5169,11 +5475,11 @@
       </c>
       <c r="E58" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>41</v>
@@ -5214,9 +5520,15 @@
       <c r="S58" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
+      <c r="T58" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V58" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W58" s="39"/>
       <c r="X58" s="39"/>
       <c r="Y58" s="39"/>
@@ -5242,7 +5554,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>40</v>
@@ -5283,9 +5595,15 @@
       <c r="S59" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
+      <c r="T59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V59" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W59" s="39"/>
       <c r="X59" s="39"/>
       <c r="Y59" s="39"/>
@@ -5311,7 +5629,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>40</v>
@@ -5352,9 +5670,15 @@
       <c r="S60" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
+      <c r="T60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V60" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W60" s="39"/>
       <c r="X60" s="39"/>
       <c r="Y60" s="39"/>
@@ -5376,11 +5700,11 @@
       </c>
       <c r="E61" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>40</v>
@@ -5421,9 +5745,15 @@
       <c r="S61" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
+      <c r="T61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U61" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V61" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W61" s="39"/>
       <c r="X61" s="39"/>
       <c r="Y61" s="39"/>
@@ -5449,7 +5779,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>40</v>
@@ -5490,9 +5820,15 @@
       <c r="S62" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
+      <c r="T62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V62" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W62" s="39"/>
       <c r="X62" s="39"/>
       <c r="Y62" s="39"/>
@@ -5514,11 +5850,11 @@
       </c>
       <c r="E63" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>40</v>
@@ -5559,9 +5895,15 @@
       <c r="S63" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
+      <c r="T63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U63" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V63" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W63" s="39"/>
       <c r="X63" s="39"/>
       <c r="Y63" s="39"/>
@@ -5587,7 +5929,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>40</v>
@@ -5628,9 +5970,15 @@
       <c r="S64" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
+      <c r="T64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V64" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W64" s="39"/>
       <c r="X64" s="39"/>
       <c r="Y64" s="39"/>
@@ -5652,11 +6000,11 @@
       </c>
       <c r="E65" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>40</v>
@@ -5697,9 +6045,15 @@
       <c r="S65" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
+      <c r="T65" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V65" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W65" s="39"/>
       <c r="X65" s="39"/>
       <c r="Y65" s="39"/>
@@ -5721,11 +6075,11 @@
       </c>
       <c r="E66" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>40</v>
@@ -5766,9 +6120,15 @@
       <c r="S66" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
+      <c r="T66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U66" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V66" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
       <c r="Y66" s="39"/>
@@ -5790,11 +6150,11 @@
       </c>
       <c r="E67" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>40</v>
@@ -5835,9 +6195,15 @@
       <c r="S67" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
+      <c r="T67" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V67" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W67" s="39"/>
       <c r="X67" s="39"/>
       <c r="Y67" s="39"/>
@@ -5859,11 +6225,11 @@
       </c>
       <c r="E68" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>40</v>
@@ -5904,9 +6270,15 @@
       <c r="S68" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
+      <c r="T68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V68" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W68" s="39"/>
       <c r="X68" s="39"/>
       <c r="Y68" s="39"/>
@@ -5928,11 +6300,11 @@
       </c>
       <c r="E69" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>40</v>
@@ -5973,9 +6345,15 @@
       <c r="S69" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
+      <c r="T69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U69" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V69" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W69" s="39"/>
       <c r="X69" s="39"/>
       <c r="Y69" s="39"/>
@@ -5997,11 +6375,11 @@
       </c>
       <c r="E70" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>40</v>
@@ -6042,9 +6420,15 @@
       <c r="S70" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
+      <c r="T70" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V70" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W70" s="39"/>
       <c r="X70" s="39"/>
       <c r="Y70" s="39"/>
@@ -6066,11 +6450,11 @@
       </c>
       <c r="E71" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>40</v>
@@ -6111,9 +6495,15 @@
       <c r="S71" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
+      <c r="T71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V71" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W71" s="39"/>
       <c r="X71" s="39"/>
       <c r="Y71" s="39"/>
@@ -6135,11 +6525,11 @@
       </c>
       <c r="E72" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>41</v>
@@ -6180,9 +6570,15 @@
       <c r="S72" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
+      <c r="T72" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V72" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W72" s="39"/>
       <c r="X72" s="39"/>
       <c r="Y72" s="39"/>
@@ -6204,11 +6600,11 @@
       </c>
       <c r="E73" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>40</v>
@@ -6249,9 +6645,15 @@
       <c r="S73" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
+      <c r="T73" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V73" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W73" s="39"/>
       <c r="X73" s="39"/>
       <c r="Y73" s="39"/>
@@ -6277,7 +6679,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>40</v>
@@ -6318,9 +6720,15 @@
       <c r="S74" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
+      <c r="T74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V74" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W74" s="39"/>
       <c r="X74" s="39"/>
       <c r="Y74" s="39"/>
@@ -6342,11 +6750,11 @@
       </c>
       <c r="E75" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>40</v>
@@ -6379,7 +6787,7 @@
         <v>40</v>
       </c>
       <c r="Q75" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R75" s="38" t="s">
         <v>40</v>
@@ -6387,9 +6795,15 @@
       <c r="S75" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
+      <c r="T75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V75" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W75" s="39"/>
       <c r="X75" s="39"/>
       <c r="Y75" s="39"/>
@@ -6415,7 +6829,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>40</v>
@@ -6456,9 +6870,15 @@
       <c r="S76" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
+      <c r="T76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V76" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W76" s="39"/>
       <c r="X76" s="39"/>
       <c r="Y76" s="39"/>
@@ -6480,11 +6900,11 @@
       </c>
       <c r="E77" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>40</v>
@@ -6525,9 +6945,15 @@
       <c r="S77" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
+      <c r="T77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U77" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V77" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W77" s="39"/>
       <c r="X77" s="39"/>
       <c r="Y77" s="39"/>
@@ -6549,11 +6975,11 @@
       </c>
       <c r="E78" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>40</v>
@@ -6594,9 +7020,15 @@
       <c r="S78" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
+      <c r="T78" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V78" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W78" s="39"/>
       <c r="X78" s="39"/>
       <c r="Y78" s="39"/>
@@ -6618,11 +7050,11 @@
       </c>
       <c r="E79" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>40</v>
@@ -6663,9 +7095,15 @@
       <c r="S79" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
+      <c r="T79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U79" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V79" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W79" s="39"/>
       <c r="X79" s="39"/>
       <c r="Y79" s="39"/>
@@ -6691,7 +7129,7 @@
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>40</v>
@@ -6732,9 +7170,15 @@
       <c r="S80" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
+      <c r="T80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V80" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W80" s="39"/>
       <c r="X80" s="39"/>
       <c r="Y80" s="39"/>
@@ -6760,7 +7204,7 @@
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>40</v>
@@ -6801,9 +7245,15 @@
       <c r="S81" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
+      <c r="T81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V81" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W81" s="39"/>
       <c r="X81" s="39"/>
       <c r="Y81" s="39"/>
@@ -6825,11 +7275,11 @@
       </c>
       <c r="E82" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>40</v>
@@ -6870,9 +7320,15 @@
       <c r="S82" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
+      <c r="T82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U82" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V82" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W82" s="39"/>
       <c r="X82" s="39"/>
       <c r="Y82" s="39"/>
@@ -6898,7 +7354,7 @@
       </c>
       <c r="F83" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>40</v>
@@ -6939,9 +7395,15 @@
       <c r="S83" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
+      <c r="T83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V83" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W83" s="39"/>
       <c r="X83" s="39"/>
       <c r="Y83" s="39"/>
@@ -6967,7 +7429,7 @@
       </c>
       <c r="F84" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>40</v>
@@ -7008,9 +7470,15 @@
       <c r="S84" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
+      <c r="T84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V84" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W84" s="39"/>
       <c r="X84" s="39"/>
       <c r="Y84" s="39"/>
@@ -7032,11 +7500,11 @@
       </c>
       <c r="E85" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G85" s="36" t="s">
         <v>40</v>
@@ -7077,9 +7545,15 @@
       <c r="S85" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T85" s="39"/>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
+      <c r="T85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U85" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="V85" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W85" s="39"/>
       <c r="X85" s="39"/>
       <c r="Y85" s="39"/>
@@ -7101,11 +7575,11 @@
       </c>
       <c r="E86" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F86" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G86" s="36" t="s">
         <v>41</v>
@@ -7146,9 +7620,15 @@
       <c r="S86" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
+      <c r="T86" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U86" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V86" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="W86" s="39"/>
       <c r="X86" s="39"/>
       <c r="Y86" s="39"/>

--- a/attendance-files/Pricing/Pricing Attendance - B.xlsx
+++ b/attendance-files/Pricing/Pricing Attendance - B.xlsx
@@ -3150,11 +3150,11 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>40</v>
@@ -3202,7 +3202,7 @@
         <v>41</v>
       </c>
       <c r="V27" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>

--- a/attendance-files/Pricing/Pricing Attendance - B.xlsx
+++ b/attendance-files/Pricing/Pricing Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="200">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1121,14 +1121,14 @@
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" ref="F7:F86" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>40</v>
@@ -1704,10 +1704,18 @@
       <c r="V7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
+      <c r="W7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
@@ -1725,11 +1733,11 @@
       </c>
       <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>40</v>
@@ -1779,10 +1787,18 @@
       <c r="V8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
+      <c r="W8" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
@@ -1804,7 +1820,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>40</v>
@@ -1854,10 +1870,18 @@
       <c r="V9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
+      <c r="W9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
@@ -1875,11 +1899,11 @@
       </c>
       <c r="E10" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>40</v>
@@ -1929,10 +1953,18 @@
       <c r="V10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
+      <c r="W10" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
@@ -1950,11 +1982,11 @@
       </c>
       <c r="E11" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>40</v>
@@ -2004,10 +2036,18 @@
       <c r="V11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
+      <c r="W11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
@@ -2025,11 +2065,11 @@
       </c>
       <c r="E12" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>40</v>
@@ -2079,10 +2119,18 @@
       <c r="V12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
+      <c r="W12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
@@ -2104,7 +2152,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>40</v>
@@ -2154,10 +2202,18 @@
       <c r="V13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="W13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
@@ -2175,11 +2231,11 @@
       </c>
       <c r="E14" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>40</v>
@@ -2229,10 +2285,18 @@
       <c r="V14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
+      <c r="W14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
@@ -2250,11 +2314,11 @@
       </c>
       <c r="E15" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>41</v>
@@ -2304,10 +2368,18 @@
       <c r="V15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
+      <c r="W15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
@@ -2329,7 +2401,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>41</v>
@@ -2379,10 +2451,18 @@
       <c r="V16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
+      <c r="W16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
@@ -2404,7 +2484,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>40</v>
@@ -2454,10 +2534,18 @@
       <c r="V17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
+      <c r="W17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
@@ -2475,11 +2563,11 @@
       </c>
       <c r="E18" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>40</v>
@@ -2529,10 +2617,18 @@
       <c r="V18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
+      <c r="W18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
@@ -2550,11 +2646,11 @@
       </c>
       <c r="E19" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>40</v>
@@ -2604,10 +2700,18 @@
       <c r="V19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
+      <c r="W19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA19" s="19"/>
     </row>
     <row r="20">
@@ -2625,11 +2729,11 @@
       </c>
       <c r="E20" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>40</v>
@@ -2679,10 +2783,18 @@
       <c r="V20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
+      <c r="W20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2700,11 +2812,11 @@
       </c>
       <c r="E21" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>40</v>
@@ -2754,10 +2866,18 @@
       <c r="V21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
+      <c r="W21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2775,11 +2895,11 @@
       </c>
       <c r="E22" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>40</v>
@@ -2829,10 +2949,18 @@
       <c r="V22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
+      <c r="W22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z22" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2850,11 +2978,11 @@
       </c>
       <c r="E23" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>41</v>
@@ -2904,10 +3032,18 @@
       <c r="V23" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
+      <c r="W23" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2929,7 +3065,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>40</v>
@@ -2979,10 +3115,18 @@
       <c r="V24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
+      <c r="W24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z24" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3000,11 +3144,11 @@
       </c>
       <c r="E25" s="35">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>41</v>
@@ -3054,10 +3198,18 @@
       <c r="V25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
+      <c r="W25" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3079,7 +3231,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>40</v>
@@ -3129,10 +3281,18 @@
       <c r="V26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
+      <c r="W26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z26" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3150,11 +3310,11 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>40</v>
@@ -3204,10 +3364,18 @@
       <c r="V27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
+      <c r="W27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3225,11 +3393,11 @@
       </c>
       <c r="E28" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>40</v>
@@ -3279,10 +3447,18 @@
       <c r="V28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
+      <c r="W28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z28" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3304,7 +3480,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>40</v>
@@ -3354,10 +3530,18 @@
       <c r="V29" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
+      <c r="W29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z29" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3379,7 +3563,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>41</v>
@@ -3429,10 +3613,18 @@
       <c r="V30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
+      <c r="W30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3454,7 +3646,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>41</v>
@@ -3504,10 +3696,18 @@
       <c r="V31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
+      <c r="W31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z31" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3525,11 +3725,11 @@
       </c>
       <c r="E32" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>40</v>
@@ -3579,10 +3779,18 @@
       <c r="V32" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
+      <c r="W32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3600,11 +3808,11 @@
       </c>
       <c r="E33" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>40</v>
@@ -3654,10 +3862,18 @@
       <c r="V33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
+      <c r="W33" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3675,11 +3891,11 @@
       </c>
       <c r="E34" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>40</v>
@@ -3729,10 +3945,18 @@
       <c r="V34" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
+      <c r="W34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z34" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3750,11 +3974,11 @@
       </c>
       <c r="E35" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>40</v>
@@ -3804,10 +4028,18 @@
       <c r="V35" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
+      <c r="W35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z35" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3825,11 +4057,11 @@
       </c>
       <c r="E36" s="35">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>40</v>
@@ -3879,10 +4111,18 @@
       <c r="V36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
+      <c r="W36" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z36" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3904,7 +4144,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>40</v>
@@ -3954,10 +4194,18 @@
       <c r="V37" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
+      <c r="W37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z37" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3979,7 +4227,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>40</v>
@@ -4029,10 +4277,18 @@
       <c r="V38" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
+      <c r="W38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4054,7 +4310,7 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>40</v>
@@ -4104,10 +4360,18 @@
       <c r="V39" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
+      <c r="W39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4125,11 +4389,11 @@
       </c>
       <c r="E40" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>40</v>
@@ -4179,10 +4443,18 @@
       <c r="V40" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
+      <c r="W40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y40" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z40" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4204,7 +4476,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>40</v>
@@ -4254,10 +4526,18 @@
       <c r="V41" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
+      <c r="W41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z41" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4275,7 +4555,7 @@
       </c>
       <c r="E42" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
@@ -4329,10 +4609,18 @@
       <c r="V42" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
+      <c r="W42" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X42" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y42" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z42" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4350,11 +4638,11 @@
       </c>
       <c r="E43" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>40</v>
@@ -4404,10 +4692,18 @@
       <c r="V43" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39"/>
+      <c r="W43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y43" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z43" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4425,11 +4721,11 @@
       </c>
       <c r="E44" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>40</v>
@@ -4479,10 +4775,18 @@
       <c r="V44" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
+      <c r="W44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y44" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z44" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4500,11 +4804,11 @@
       </c>
       <c r="E45" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>40</v>
@@ -4554,10 +4858,18 @@
       <c r="V45" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="39"/>
+      <c r="W45" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z45" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4575,11 +4887,11 @@
       </c>
       <c r="E46" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>40</v>
@@ -4629,10 +4941,18 @@
       <c r="V46" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="39"/>
+      <c r="W46" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z46" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4650,11 +4970,11 @@
       </c>
       <c r="E47" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>40</v>
@@ -4704,10 +5024,18 @@
       <c r="V47" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
+      <c r="W47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y47" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z47" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4725,11 +5053,11 @@
       </c>
       <c r="E48" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>40</v>
@@ -4779,10 +5107,18 @@
       <c r="V48" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
+      <c r="W48" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z48" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -4800,11 +5136,11 @@
       </c>
       <c r="E49" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>40</v>
@@ -4854,10 +5190,18 @@
       <c r="V49" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
+      <c r="W49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X49" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z49" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -4875,11 +5219,11 @@
       </c>
       <c r="E50" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>40</v>
@@ -4929,10 +5273,18 @@
       <c r="V50" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
+      <c r="W50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y50" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z50" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -4954,7 +5306,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>40</v>
@@ -5004,10 +5356,18 @@
       <c r="V51" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
+      <c r="W51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z51" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5029,7 +5389,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>40</v>
@@ -5079,10 +5439,18 @@
       <c r="V52" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
+      <c r="W52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z52" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5100,11 +5468,11 @@
       </c>
       <c r="E53" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>40</v>
@@ -5154,10 +5522,18 @@
       <c r="V53" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
+      <c r="W53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y53" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z53" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5175,11 +5551,11 @@
       </c>
       <c r="E54" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>40</v>
@@ -5229,10 +5605,18 @@
       <c r="V54" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
+      <c r="W54" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z54" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5254,7 +5638,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>40</v>
@@ -5304,10 +5688,18 @@
       <c r="V55" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
+      <c r="W55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z55" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5325,11 +5717,11 @@
       </c>
       <c r="E56" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>40</v>
@@ -5379,10 +5771,18 @@
       <c r="V56" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
+      <c r="W56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y56" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z56" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5400,11 +5800,11 @@
       </c>
       <c r="E57" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>40</v>
@@ -5454,10 +5854,18 @@
       <c r="V57" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
+      <c r="W57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y57" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z57" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5479,7 +5887,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>41</v>
@@ -5529,10 +5937,18 @@
       <c r="V58" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
+      <c r="W58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z58" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5554,7 +5970,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>40</v>
@@ -5604,10 +6020,18 @@
       <c r="V59" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
+      <c r="W59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z59" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5625,11 +6049,11 @@
       </c>
       <c r="E60" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>40</v>
@@ -5679,10 +6103,18 @@
       <c r="V60" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
+      <c r="W60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X60" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y60" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z60" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -5700,11 +6132,11 @@
       </c>
       <c r="E61" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>40</v>
@@ -5754,10 +6186,18 @@
       <c r="V61" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
+      <c r="W61" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z61" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -5775,11 +6215,11 @@
       </c>
       <c r="E62" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>40</v>
@@ -5829,10 +6269,18 @@
       <c r="V62" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
+      <c r="W62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y62" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z62" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -5854,7 +6302,7 @@
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>40</v>
@@ -5904,10 +6352,18 @@
       <c r="V63" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
+      <c r="W63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z63" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -5929,7 +6385,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>40</v>
@@ -5979,10 +6435,18 @@
       <c r="V64" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
+      <c r="W64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z64" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6000,11 +6464,11 @@
       </c>
       <c r="E65" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>40</v>
@@ -6054,10 +6518,18 @@
       <c r="V65" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
+      <c r="W65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y65" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z65" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6079,7 +6551,7 @@
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>40</v>
@@ -6129,10 +6601,18 @@
       <c r="V66" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
+      <c r="W66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z66" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6150,11 +6630,11 @@
       </c>
       <c r="E67" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>40</v>
@@ -6204,10 +6684,18 @@
       <c r="V67" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
+      <c r="W67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X67" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z67" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6225,11 +6713,11 @@
       </c>
       <c r="E68" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>40</v>
@@ -6279,10 +6767,18 @@
       <c r="V68" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
+      <c r="W68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z68" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -6300,11 +6796,11 @@
       </c>
       <c r="E69" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>40</v>
@@ -6354,10 +6850,18 @@
       <c r="V69" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
+      <c r="W69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y69" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z69" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6379,7 +6883,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>40</v>
@@ -6429,10 +6933,18 @@
       <c r="V70" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
+      <c r="W70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z70" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6454,7 +6966,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>40</v>
@@ -6504,10 +7016,18 @@
       <c r="V71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="39"/>
+      <c r="W71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z71" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6529,7 +7049,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>41</v>
@@ -6579,10 +7099,18 @@
       <c r="V72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="39"/>
+      <c r="W72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z72" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -6604,7 +7132,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>40</v>
@@ -6654,10 +7182,18 @@
       <c r="V73" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="39"/>
+      <c r="W73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z73" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -6675,11 +7211,11 @@
       </c>
       <c r="E74" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>40</v>
@@ -6729,10 +7265,18 @@
       <c r="V74" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="39"/>
+      <c r="W74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z74" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -6754,7 +7298,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>40</v>
@@ -6804,10 +7348,18 @@
       <c r="V75" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="39"/>
+      <c r="W75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z75" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -6825,11 +7377,11 @@
       </c>
       <c r="E76" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>40</v>
@@ -6879,10 +7431,18 @@
       <c r="V76" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
+      <c r="W76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z76" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -6900,11 +7460,11 @@
       </c>
       <c r="E77" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>40</v>
@@ -6954,10 +7514,18 @@
       <c r="V77" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="39"/>
+      <c r="W77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X77" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z77" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -6979,7 +7547,7 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>40</v>
@@ -7029,10 +7597,18 @@
       <c r="V78" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39"/>
+      <c r="W78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z78" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -7054,7 +7630,7 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>40</v>
@@ -7104,10 +7680,18 @@
       <c r="V79" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
+      <c r="W79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z79" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -7125,11 +7709,11 @@
       </c>
       <c r="E80" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>40</v>
@@ -7179,10 +7763,18 @@
       <c r="V80" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="39"/>
+      <c r="W80" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y80" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z80" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -7200,11 +7792,11 @@
       </c>
       <c r="E81" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>40</v>
@@ -7254,10 +7846,18 @@
       <c r="V81" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="39"/>
+      <c r="W81" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z81" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -7279,7 +7879,7 @@
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>40</v>
@@ -7329,10 +7929,18 @@
       <c r="V82" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
-      <c r="Z82" s="39"/>
+      <c r="W82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z82" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -7350,11 +7958,11 @@
       </c>
       <c r="E83" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F83" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>40</v>
@@ -7404,10 +8012,18 @@
       <c r="V83" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="39"/>
+      <c r="W83" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y83" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z83" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -7425,11 +8041,11 @@
       </c>
       <c r="E84" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>40</v>
@@ -7479,10 +8095,18 @@
       <c r="V84" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
-      <c r="Z84" s="39"/>
+      <c r="W84" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z84" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -7500,11 +8124,11 @@
       </c>
       <c r="E85" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G85" s="36" t="s">
         <v>40</v>
@@ -7554,10 +8178,18 @@
       <c r="V85" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W85" s="39"/>
-      <c r="X85" s="39"/>
-      <c r="Y85" s="39"/>
-      <c r="Z85" s="39"/>
+      <c r="W85" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y85" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z85" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -7579,7 +8211,7 @@
       </c>
       <c r="F86" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G86" s="36" t="s">
         <v>41</v>
@@ -7629,41 +8261,49 @@
       <c r="V86" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="39"/>
+      <c r="W86" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X86" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y86" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z86" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="31">
         <v>81.0</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="34"/>
       <c r="E87" s="35"/>
       <c r="F87" s="35"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
-      <c r="Z87" s="39"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -7675,150 +8315,150 @@
       <c r="D88" s="34"/>
       <c r="E88" s="35"/>
       <c r="F88" s="35"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="39"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="41"/>
+      <c r="S88" s="41"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="41"/>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="41"/>
+      <c r="Z88" s="41"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="35">
         <v>83.0</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
       <c r="D89" s="34"/>
       <c r="E89" s="35"/>
       <c r="F89" s="35"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="39"/>
-      <c r="Y89" s="39"/>
-      <c r="Z89" s="39"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="35">
         <v>84.0</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
       <c r="D90" s="34"/>
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="39"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="41"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="41"/>
+      <c r="Z90" s="41"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="35">
         <v>85.0</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
       <c r="D91" s="34"/>
       <c r="E91" s="35"/>
       <c r="F91" s="35"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="41"/>
+      <c r="S91" s="41"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="41"/>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="41"/>
+      <c r="Z91" s="41"/>
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="35">
         <v>86.0</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="34"/>
       <c r="E92" s="35"/>
       <c r="F92" s="35"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
-      <c r="Z92" s="39"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="41"/>
+      <c r="S92" s="41"/>
+      <c r="T92" s="41"/>
+      <c r="U92" s="41"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="41"/>
+      <c r="X92" s="41"/>
+      <c r="Y92" s="41"/>
+      <c r="Z92" s="41"/>
       <c r="AA92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
